--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Servletのクラス仕様書(exampleServlet).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Servletのクラス仕様書(exampleServlet).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB840F3A-DAC6-46F0-8C20-A0DFA68A9A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26085" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（doGet）'!$A$1:$BI$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doPost）'!$A$1:$BI$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -176,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
@@ -657,6 +669,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -692,6 +721,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -867,19 +913,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1201,7 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1426,7 +1472,7 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1539,7 @@
       <c r="BH4" s="43"/>
       <c r="BI4" s="43"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1604,7 @@
       <c r="BH5" s="43"/>
       <c r="BI5" s="43"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1675,7 @@
       <c r="BH6" s="43"/>
       <c r="BI6" s="43"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1748,7 @@
       <c r="BH8" s="42"/>
       <c r="BI8" s="42"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -1765,7 +1811,7 @@
       <c r="BH9" s="39"/>
       <c r="BI9" s="39"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -1828,7 +1874,7 @@
       <c r="BH10" s="39"/>
       <c r="BI10" s="39"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -1891,7 +1937,7 @@
       <c r="BH11" s="39"/>
       <c r="BI11" s="39"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -1954,7 +2000,7 @@
       <c r="BH12" s="39"/>
       <c r="BI12" s="39"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -2017,7 +2063,7 @@
       <c r="BH13" s="39"/>
       <c r="BI13" s="39"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -2080,7 +2126,7 @@
       <c r="BH14" s="39"/>
       <c r="BI14" s="39"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +2191,7 @@
       <c r="BH16" s="42"/>
       <c r="BI16" s="42"/>
     </row>
-    <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>42</v>
       </c>
@@ -2210,7 +2256,7 @@
       <c r="BH17" s="39"/>
       <c r="BI17" s="39"/>
     </row>
-    <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -2273,7 +2319,7 @@
       <c r="BH18" s="39"/>
       <c r="BI18" s="39"/>
     </row>
-    <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2336,7 +2382,7 @@
       <c r="BH19" s="39"/>
       <c r="BI19" s="39"/>
     </row>
-    <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -2399,7 +2445,7 @@
       <c r="BH20" s="39"/>
       <c r="BI20" s="39"/>
     </row>
-    <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -2462,7 +2508,7 @@
       <c r="BH21" s="39"/>
       <c r="BI21" s="39"/>
     </row>
-    <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -2599,19 +2645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2937,7 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -3162,7 +3208,7 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>19</v>
       </c>
@@ -3426,7 +3472,7 @@
       <c r="IW4" s="1"/>
       <c r="IX4" s="1"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>20</v>
       </c>
@@ -3690,7 +3736,7 @@
       <c r="IW5" s="1"/>
       <c r="IX5" s="1"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3950,7 +3996,7 @@
       <c r="IW6" s="1"/>
       <c r="IX6" s="1"/>
     </row>
-    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
@@ -4218,7 +4264,7 @@
       <c r="IW7" s="1"/>
       <c r="IX7" s="1"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>24</v>
       </c>
@@ -4486,7 +4532,7 @@
       <c r="IW8" s="1"/>
       <c r="IX8" s="1"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
@@ -4754,7 +4800,7 @@
       <c r="IW9" s="1"/>
       <c r="IX9" s="1"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -5022,7 +5068,7 @@
       <c r="IW10" s="1"/>
       <c r="IX10" s="1"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>29</v>
       </c>
@@ -5290,7 +5336,7 @@
       <c r="IW11" s="1"/>
       <c r="IX11" s="1"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5550,7 +5596,7 @@
       <c r="IW12" s="1"/>
       <c r="IX12" s="1"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>34</v>
       </c>
@@ -5816,7 +5862,7 @@
       <c r="IW13" s="1"/>
       <c r="IX13" s="1"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6076,7 +6122,7 @@
       <c r="IW14" s="1"/>
       <c r="IX14" s="1"/>
     </row>
-    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="9"/>
@@ -6335,7 +6381,7 @@
       <c r="IW15" s="1"/>
       <c r="IX15" s="1"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6595,7 +6641,7 @@
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
     </row>
-    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -6853,7 +6899,7 @@
       <c r="IW17" s="1"/>
       <c r="IX17" s="1"/>
     </row>
-    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -7111,7 +7157,7 @@
       <c r="IW18" s="1"/>
       <c r="IX18" s="1"/>
     </row>
-    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7371,7 +7417,7 @@
       <c r="IW19" s="1"/>
       <c r="IX19" s="1"/>
     </row>
-    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -7631,7 +7677,7 @@
       <c r="IW20" s="1"/>
       <c r="IX20" s="1"/>
     </row>
-    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7891,7 +7937,7 @@
       <c r="IW21" s="1"/>
       <c r="IX21" s="1"/>
     </row>
-    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8151,7 +8197,7 @@
       <c r="IW22" s="1"/>
       <c r="IX22" s="1"/>
     </row>
-    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8411,7 +8457,7 @@
       <c r="IW23" s="1"/>
       <c r="IX23" s="1"/>
     </row>
-    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8670,7 +8716,7 @@
       <c r="IW24" s="1"/>
       <c r="IX24" s="1"/>
     </row>
-    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -8929,7 +8975,7 @@
       <c r="IW25" s="1"/>
       <c r="IX25" s="1"/>
     </row>
-    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -9189,7 +9235,7 @@
       <c r="IW26" s="1"/>
       <c r="IX26" s="1"/>
     </row>
-    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -9449,7 +9495,7 @@
       <c r="IW27" s="1"/>
       <c r="IX27" s="1"/>
     </row>
-    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -9709,7 +9755,7 @@
       <c r="IW28" s="1"/>
       <c r="IX28" s="1"/>
     </row>
-    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -9969,7 +10015,7 @@
       <c r="IW29" s="1"/>
       <c r="IX29" s="1"/>
     </row>
-    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -10229,7 +10275,7 @@
       <c r="IW30" s="1"/>
       <c r="IX30" s="1"/>
     </row>
-    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -10489,7 +10535,7 @@
       <c r="IW31" s="1"/>
       <c r="IX31" s="1"/>
     </row>
-    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -10749,7 +10795,7 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -11009,7 +11055,7 @@
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
     </row>
-    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -11269,7 +11315,7 @@
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
     </row>
-    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -11529,7 +11575,7 @@
       <c r="IW35" s="1"/>
       <c r="IX35" s="1"/>
     </row>
-    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -11789,7 +11835,7 @@
       <c r="IW36" s="1"/>
       <c r="IX36" s="1"/>
     </row>
-    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -12049,7 +12095,7 @@
       <c r="IW37" s="1"/>
       <c r="IX37" s="1"/>
     </row>
-    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -12309,7 +12355,7 @@
       <c r="IW38" s="1"/>
       <c r="IX38" s="1"/>
     </row>
-    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -12569,7 +12615,7 @@
       <c r="IW39" s="1"/>
       <c r="IX39" s="1"/>
     </row>
-    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -12829,7 +12875,7 @@
       <c r="IW40" s="1"/>
       <c r="IX40" s="1"/>
     </row>
-    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -13089,7 +13135,7 @@
       <c r="IW41" s="1"/>
       <c r="IX41" s="1"/>
     </row>
-    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -13349,7 +13395,7 @@
       <c r="IW42" s="1"/>
       <c r="IX42" s="1"/>
     </row>
-    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -13609,7 +13655,7 @@
       <c r="IW43" s="1"/>
       <c r="IX43" s="1"/>
     </row>
-    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -13869,7 +13915,7 @@
       <c r="IW44" s="1"/>
       <c r="IX44" s="1"/>
     </row>
-    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -14129,7 +14175,7 @@
       <c r="IW45" s="1"/>
       <c r="IX45" s="1"/>
     </row>
-    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -14389,7 +14435,7 @@
       <c r="IW46" s="1"/>
       <c r="IX46" s="1"/>
     </row>
-    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -14649,7 +14695,7 @@
       <c r="IW47" s="1"/>
       <c r="IX47" s="1"/>
     </row>
-    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -14909,7 +14955,7 @@
       <c r="IW48" s="1"/>
       <c r="IX48" s="1"/>
     </row>
-    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -15169,7 +15215,7 @@
       <c r="IW49" s="1"/>
       <c r="IX49" s="1"/>
     </row>
-    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -15429,7 +15475,7 @@
       <c r="IW50" s="1"/>
       <c r="IX50" s="1"/>
     </row>
-    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -15689,7 +15735,7 @@
       <c r="IW51" s="1"/>
       <c r="IX51" s="1"/>
     </row>
-    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -15948,7 +15994,7 @@
       <c r="IW52" s="1"/>
       <c r="IX52" s="1"/>
     </row>
-    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -16208,7 +16254,7 @@
       <c r="IW53" s="1"/>
       <c r="IX53" s="1"/>
     </row>
-    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -16470,6 +16516,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -16481,16 +16537,6 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:O8"/>
     <mergeCell ref="P8:AD8"/>
@@ -16517,7 +16563,7 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16529,19 +16575,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IX54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -16821,7 +16867,7 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -17092,7 +17138,7 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>19</v>
       </c>
@@ -17356,7 +17402,7 @@
       <c r="IW4" s="1"/>
       <c r="IX4" s="1"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>20</v>
       </c>
@@ -17620,7 +17666,7 @@
       <c r="IW5" s="1"/>
       <c r="IX5" s="1"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -17880,7 +17926,7 @@
       <c r="IW6" s="1"/>
       <c r="IX6" s="1"/>
     </row>
-    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
@@ -18148,7 +18194,7 @@
       <c r="IW7" s="1"/>
       <c r="IX7" s="1"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>24</v>
       </c>
@@ -18416,7 +18462,7 @@
       <c r="IW8" s="1"/>
       <c r="IX8" s="1"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
@@ -18684,7 +18730,7 @@
       <c r="IW9" s="1"/>
       <c r="IX9" s="1"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -18952,7 +18998,7 @@
       <c r="IW10" s="1"/>
       <c r="IX10" s="1"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>29</v>
       </c>
@@ -19220,7 +19266,7 @@
       <c r="IW11" s="1"/>
       <c r="IX11" s="1"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -19480,7 +19526,7 @@
       <c r="IW12" s="1"/>
       <c r="IX12" s="1"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>34</v>
       </c>
@@ -19746,7 +19792,7 @@
       <c r="IW13" s="1"/>
       <c r="IX13" s="1"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -20006,7 +20052,7 @@
       <c r="IW14" s="1"/>
       <c r="IX14" s="1"/>
     </row>
-    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="9"/>
@@ -20265,7 +20311,7 @@
       <c r="IW15" s="1"/>
       <c r="IX15" s="1"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -20525,7 +20571,7 @@
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
     </row>
-    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -20783,7 +20829,7 @@
       <c r="IW17" s="1"/>
       <c r="IX17" s="1"/>
     </row>
-    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -21041,7 +21087,7 @@
       <c r="IW18" s="1"/>
       <c r="IX18" s="1"/>
     </row>
-    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -21301,7 +21347,7 @@
       <c r="IW19" s="1"/>
       <c r="IX19" s="1"/>
     </row>
-    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -21561,7 +21607,7 @@
       <c r="IW20" s="1"/>
       <c r="IX20" s="1"/>
     </row>
-    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -21821,7 +21867,7 @@
       <c r="IW21" s="1"/>
       <c r="IX21" s="1"/>
     </row>
-    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -22081,7 +22127,7 @@
       <c r="IW22" s="1"/>
       <c r="IX22" s="1"/>
     </row>
-    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -22341,7 +22387,7 @@
       <c r="IW23" s="1"/>
       <c r="IX23" s="1"/>
     </row>
-    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -22600,7 +22646,7 @@
       <c r="IW24" s="1"/>
       <c r="IX24" s="1"/>
     </row>
-    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -22859,7 +22905,7 @@
       <c r="IW25" s="1"/>
       <c r="IX25" s="1"/>
     </row>
-    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -23119,7 +23165,7 @@
       <c r="IW26" s="1"/>
       <c r="IX26" s="1"/>
     </row>
-    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -23379,7 +23425,7 @@
       <c r="IW27" s="1"/>
       <c r="IX27" s="1"/>
     </row>
-    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -23639,7 +23685,7 @@
       <c r="IW28" s="1"/>
       <c r="IX28" s="1"/>
     </row>
-    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -23899,7 +23945,7 @@
       <c r="IW29" s="1"/>
       <c r="IX29" s="1"/>
     </row>
-    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -24159,7 +24205,7 @@
       <c r="IW30" s="1"/>
       <c r="IX30" s="1"/>
     </row>
-    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -24419,7 +24465,7 @@
       <c r="IW31" s="1"/>
       <c r="IX31" s="1"/>
     </row>
-    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -24679,7 +24725,7 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -24939,7 +24985,7 @@
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
     </row>
-    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -25199,7 +25245,7 @@
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
     </row>
-    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -25459,7 +25505,7 @@
       <c r="IW35" s="1"/>
       <c r="IX35" s="1"/>
     </row>
-    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -25719,7 +25765,7 @@
       <c r="IW36" s="1"/>
       <c r="IX36" s="1"/>
     </row>
-    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25979,7 +26025,7 @@
       <c r="IW37" s="1"/>
       <c r="IX37" s="1"/>
     </row>
-    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -26239,7 +26285,7 @@
       <c r="IW38" s="1"/>
       <c r="IX38" s="1"/>
     </row>
-    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -26499,7 +26545,7 @@
       <c r="IW39" s="1"/>
       <c r="IX39" s="1"/>
     </row>
-    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -26759,7 +26805,7 @@
       <c r="IW40" s="1"/>
       <c r="IX40" s="1"/>
     </row>
-    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -27019,7 +27065,7 @@
       <c r="IW41" s="1"/>
       <c r="IX41" s="1"/>
     </row>
-    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -27279,7 +27325,7 @@
       <c r="IW42" s="1"/>
       <c r="IX42" s="1"/>
     </row>
-    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -27539,7 +27585,7 @@
       <c r="IW43" s="1"/>
       <c r="IX43" s="1"/>
     </row>
-    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -27799,7 +27845,7 @@
       <c r="IW44" s="1"/>
       <c r="IX44" s="1"/>
     </row>
-    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -28059,7 +28105,7 @@
       <c r="IW45" s="1"/>
       <c r="IX45" s="1"/>
     </row>
-    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -28319,7 +28365,7 @@
       <c r="IW46" s="1"/>
       <c r="IX46" s="1"/>
     </row>
-    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -28579,7 +28625,7 @@
       <c r="IW47" s="1"/>
       <c r="IX47" s="1"/>
     </row>
-    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -28839,7 +28885,7 @@
       <c r="IW48" s="1"/>
       <c r="IX48" s="1"/>
     </row>
-    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -29099,7 +29145,7 @@
       <c r="IW49" s="1"/>
       <c r="IX49" s="1"/>
     </row>
-    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -29359,7 +29405,7 @@
       <c r="IW50" s="1"/>
       <c r="IX50" s="1"/>
     </row>
-    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -29619,7 +29665,7 @@
       <c r="IW51" s="1"/>
       <c r="IX51" s="1"/>
     </row>
-    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -29878,7 +29924,7 @@
       <c r="IW52" s="1"/>
       <c r="IX52" s="1"/>
     </row>
-    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -30138,7 +30184,7 @@
       <c r="IW53" s="1"/>
       <c r="IX53" s="1"/>
     </row>
-    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -30447,7 +30493,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
   </dataValidations>
